--- a/DrenaSys/Resources/EquacoesChuva.xlsx
+++ b/DrenaSys/Resources/EquacoesChuva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maicon Rossini\Documents\GitHub\DrenaSys\DrenaSys\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE67127-F187-4F59-8026-D84178FDDFD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE209F52-DFF5-4E88-AC8F-1DA659DD326B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4AF423C0-1965-4120-B375-2DA1CA98CBF7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Relatório de Estudo Hidrológico</t>
   </si>
@@ -88,13 +88,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="&quot;TR = &quot;\ General"/>
+    <numFmt numFmtId="166" formatCode="&quot;TR = &quot;\ General"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +121,38 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -271,23 +292,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -301,6 +401,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,18 +450,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,34 +664,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1003898211726155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.585770902697557</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2810470871820743</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82475822584024905</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49331195083640933</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35678986465127122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19997693059831054</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10997535775173865</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7128000166801144E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.987843795552604E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,34 +767,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3565186664372062</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7791453258964656</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4372624277164954</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92533211449535646</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55346812710868443</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40029806256484773</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22436281354127172</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12338613564857087</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6533256953496687E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7180223088551566E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,34 +870,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5205889802882924</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9030165840214237</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5373304224921704</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98975746049580904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59200280566422736</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42816842476244171</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23998385561427324</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13197677500528784</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2558050573477602E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1857580600592427E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,34 +973,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.7436513701473051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0714262019689729</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6733782274797364</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0773471731564315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64439276756098995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46605967670259557</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26122149998212946</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1436562098789568</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10074908057601689</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8216698958882433E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,34 +1078,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0782217675852999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3240231226991117</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8774357927825482</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2087226371908053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72297226446604845</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52289261581462243</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29307575887934423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16117414811141456</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11303477412170261</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7754715465533678E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,34 +1181,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4535908437693528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6074225911143674</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1063768478269624</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3561184825658381</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8111340187220446</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58665596133074716</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3288144369762046</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18082828470365631</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12681862789908022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8455830902363234E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,34 +1739,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1715</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8431000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9485000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9196999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4222000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1992000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9181999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3298000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6225000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,34 +1842,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3565</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5583</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3117999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5519999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6416000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2054</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0770999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8838000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3455999999999992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6739999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,34 +1945,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5206</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.806</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6120000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9385000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1040000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7069999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6394000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5023</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9962999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.3475</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,34 +2048,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.7437</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1429</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0201000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4641000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7327000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3890999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4039999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.3432</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.8809</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.263199999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,34 +2151,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0781999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6479999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6322999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2523</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6757000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4121000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.550700000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.6045</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.207800000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.636699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,34 +2254,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4535999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2148000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3190999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1366999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7335999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.559799999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.837300000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.019600000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.696400000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.1776</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3981,7 +4149,7 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,462 +4166,457 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="25" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="8"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="26" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="12"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="24" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="12"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="24" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="23">
-        <v>1824.73</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="12"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="24" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="23">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="12"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="24" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="23">
-        <v>17</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="12"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="24" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="12"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="24" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="12"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="24" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="12"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="24" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="12"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="11"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="24" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="12"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="24" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="12"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="48">
+        <f>A1/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="11"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="11"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="22" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="12"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="11"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
@@ -4487,419 +4650,419 @@
       <c r="O19" s="2">
         <v>1440</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="3">
         <v>5</v>
       </c>
       <c r="F20" s="4">
         <f>(($J$6*($E$20^$J$8))/((F19+$J$9)^$J$7)/60)</f>
-        <v>2.1003898211726155</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" ref="G20:O20" si="0">(($J$6*($E$20^$J$8))/((G19+$J$9)^$J$7)/60)</f>
-        <v>1.585770902697557</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>1.2810470871820743</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>0.82475822584024905</v>
+        <v>0</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="0"/>
-        <v>0.49331195083640933</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>0.35678986465127122</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>0.19997693059831054</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="0"/>
-        <v>0.10997535775173865</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>7.7128000166801144E-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="0"/>
-        <v>5.987843795552604E-2</v>
-      </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="3">
         <v>10</v>
       </c>
       <c r="F21" s="4">
         <f>(($J$6*($E$21^$J$8))/((F19+$J$9)^$J$7)/60)</f>
-        <v>2.3565186664372062</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" ref="G21:O21" si="1">(($J$6*($E$21^$J$8))/((G19+$J$9)^$J$7)/60)</f>
-        <v>1.7791453258964656</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
-        <v>1.4372624277164954</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="1"/>
-        <v>0.92533211449535646</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
-        <v>0.55346812710868443</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>0.40029806256484773</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="1"/>
-        <v>0.22436281354127172</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="1"/>
-        <v>0.12338613564857087</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="1"/>
-        <v>8.6533256953496687E-2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="1"/>
-        <v>6.7180223088551566E-2</v>
-      </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="13"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="3">
         <v>15</v>
       </c>
       <c r="F22" s="4">
         <f>(($J$6*($E$22^$J$8))/((F19+$J$9)^$J$7)/60)</f>
-        <v>2.5205889802882924</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" ref="G22:O22" si="2">(($J$6*($E$22^$J$8))/((G19+$J$9)^$J$7)/60)</f>
-        <v>1.9030165840214237</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="2"/>
-        <v>1.5373304224921704</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="2"/>
-        <v>0.98975746049580904</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="2"/>
-        <v>0.59200280566422736</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>0.42816842476244171</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="2"/>
-        <v>0.23998385561427324</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="2"/>
-        <v>0.13197677500528784</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="2"/>
-        <v>9.2558050573477602E-2</v>
+        <v>0</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="2"/>
-        <v>7.1857580600592427E-2</v>
-      </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="11"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="3">
         <v>25</v>
       </c>
       <c r="F23" s="4">
         <f>(($J$6*($E$23^$J$8))/((F19+$J$9)^$J$7)/60)</f>
-        <v>2.7436513701473051</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" ref="G23:O23" si="3">(($J$6*($E$23^$J$8))/((G19+$J$9)^$J$7)/60)</f>
-        <v>2.0714262019689729</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="3"/>
-        <v>1.6733782274797364</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>1.0773471731564315</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="3"/>
-        <v>0.64439276756098995</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="3"/>
-        <v>0.46605967670259557</v>
+        <v>0</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="3"/>
-        <v>0.26122149998212946</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="3"/>
-        <v>0.1436562098789568</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="3"/>
-        <v>0.10074908057601689</v>
+        <v>0</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="3"/>
-        <v>7.8216698958882433E-2</v>
-      </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="3">
         <v>50</v>
       </c>
       <c r="F24" s="4">
         <f>(($J$6*($E$24^$J$8))/((F19+$J$9)^$J$7)/60)</f>
-        <v>3.0782217675852999</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ref="G24:O24" si="4">(($J$6*($E$24^$J$8))/((G19+$J$9)^$J$7)/60)</f>
-        <v>2.3240231226991117</v>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="4"/>
-        <v>1.8774357927825482</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
-        <v>1.2087226371908053</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>0.72297226446604845</v>
+        <v>0</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="4"/>
-        <v>0.52289261581462243</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="4"/>
-        <v>0.29307575887934423</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="4"/>
-        <v>0.16117414811141456</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="4"/>
-        <v>0.11303477412170261</v>
+        <v>0</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="4"/>
-        <v>8.7754715465533678E-2</v>
-      </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="11"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="3">
         <v>100</v>
       </c>
       <c r="F25" s="4">
         <f>(($J$6*($E$25^$J$8))/((F19+$J$9)^$J$7)/60)</f>
-        <v>3.4535908437693528</v>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ref="G25:O25" si="5">(($J$6*($E$25^$J$8))/((G19+$J$9)^$J$7)/60)</f>
-        <v>2.6074225911143674</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="5"/>
-        <v>2.1063768478269624</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="5"/>
-        <v>1.3561184825658381</v>
+        <v>0</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>0.8111340187220446</v>
+        <v>0</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="5"/>
-        <v>0.58665596133074716</v>
+        <v>0</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="5"/>
-        <v>0.3288144369762046</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="5"/>
-        <v>0.18082828470365631</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="5"/>
-        <v>0.12681862789908022</v>
+        <v>0</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="5"/>
-        <v>9.8455830902363234E-2</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="11"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="12"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="11"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="22" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="12"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="11"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="12"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="11"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
@@ -4933,1502 +5096,1493 @@
       <c r="O29" s="2">
         <v>1440</v>
       </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="12"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="11"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="3">
         <v>5</v>
       </c>
       <c r="F30" s="4">
         <f>ROUND(((F20*F$29)/10),4)</f>
-        <v>2.1004</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4">
         <f>ROUND(((G20*G$29)/10),4)</f>
-        <v>3.1715</v>
+        <v>0</v>
       </c>
       <c r="H30" s="4">
         <f>ROUND(((H20*H$29)/10),4)</f>
-        <v>3.8431000000000002</v>
+        <v>0</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" ref="I30:N30" si="6">ROUND(((I20*I$29)/10),4)</f>
-        <v>4.9485000000000001</v>
+        <v>0</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="6"/>
-        <v>5.9196999999999997</v>
+        <v>0</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="6"/>
-        <v>6.4222000000000001</v>
+        <v>0</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="6"/>
-        <v>7.1992000000000003</v>
+        <v>0</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="6"/>
-        <v>7.9181999999999997</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="6"/>
-        <v>8.3298000000000005</v>
+        <v>0</v>
       </c>
       <c r="O30" s="4">
         <f>ROUND(((O20*O$29)/10),4)</f>
-        <v>8.6225000000000005</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="11"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="3">
         <v>10</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ref="F31:G35" si="7">ROUND(((F21*F$29)/10),4)</f>
-        <v>2.3565</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="7"/>
-        <v>3.5583</v>
+        <v>0</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" ref="H31:O31" si="8">ROUND(((H21*H$29)/10),4)</f>
-        <v>4.3117999999999999</v>
+        <v>0</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="8"/>
-        <v>5.5519999999999996</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="8"/>
-        <v>6.6416000000000004</v>
+        <v>0</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="8"/>
-        <v>7.2054</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="8"/>
-        <v>8.0770999999999997</v>
+        <v>0</v>
       </c>
       <c r="M31" s="4">
         <f t="shared" si="8"/>
-        <v>8.8838000000000008</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" si="8"/>
-        <v>9.3455999999999992</v>
+        <v>0</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="8"/>
-        <v>9.6739999999999995</v>
-      </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="11"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="3">
         <v>15</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="7"/>
-        <v>2.5206</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="7"/>
-        <v>3.806</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" ref="H32:O32" si="9">ROUND(((H22*H$29)/10),4)</f>
-        <v>4.6120000000000001</v>
+        <v>0</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="9"/>
-        <v>5.9385000000000003</v>
+        <v>0</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="9"/>
-        <v>7.1040000000000001</v>
+        <v>0</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="9"/>
-        <v>7.7069999999999999</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="9"/>
-        <v>8.6394000000000002</v>
+        <v>0</v>
       </c>
       <c r="M32" s="4">
         <f t="shared" si="9"/>
-        <v>9.5023</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4">
         <f t="shared" si="9"/>
-        <v>9.9962999999999997</v>
+        <v>0</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="9"/>
-        <v>10.3475</v>
-      </c>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="11"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="3">
         <v>25</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="7"/>
-        <v>2.7437</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="7"/>
-        <v>4.1429</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" ref="H33:O33" si="10">ROUND(((H23*H$29)/10),4)</f>
-        <v>5.0201000000000002</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="10"/>
-        <v>6.4641000000000002</v>
+        <v>0</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="10"/>
-        <v>7.7327000000000004</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="10"/>
-        <v>8.3890999999999991</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="10"/>
-        <v>9.4039999999999999</v>
+        <v>0</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" si="10"/>
-        <v>10.3432</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="10"/>
-        <v>10.8809</v>
+        <v>0</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="10"/>
-        <v>11.263199999999999</v>
-      </c>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="11"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="3">
         <v>50</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="7"/>
-        <v>3.0781999999999998</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="7"/>
-        <v>4.6479999999999997</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" ref="H34:O34" si="11">ROUND(((H24*H$29)/10),4)</f>
-        <v>5.6322999999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="11"/>
-        <v>7.2523</v>
+        <v>0</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="11"/>
-        <v>8.6757000000000009</v>
+        <v>0</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="11"/>
-        <v>9.4121000000000006</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="11"/>
-        <v>10.550700000000001</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4">
         <f t="shared" si="11"/>
-        <v>11.6045</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4">
         <f t="shared" si="11"/>
-        <v>12.207800000000001</v>
+        <v>0</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="11"/>
-        <v>12.636699999999999</v>
-      </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="11"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="7"/>
-        <v>3.4535999999999998</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="7"/>
-        <v>5.2148000000000003</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" ref="H35:O35" si="12">ROUND(((H25*H$29)/10),4)</f>
-        <v>6.3190999999999997</v>
+        <v>0</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="12"/>
-        <v>8.1366999999999994</v>
+        <v>0</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="12"/>
-        <v>9.7335999999999991</v>
+        <v>0</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="12"/>
-        <v>10.559799999999999</v>
+        <v>0</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="12"/>
-        <v>11.837300000000001</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4">
         <f t="shared" si="12"/>
-        <v>13.019600000000001</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4">
         <f t="shared" si="12"/>
-        <v>13.696400000000001</v>
+        <v>0</v>
       </c>
       <c r="O35" s="4">
         <f t="shared" si="12"/>
-        <v>14.1776</v>
-      </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="11"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="15" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="12"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="11"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="12"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="11"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="12"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="11"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="12"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="11"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="12"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="11"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="11"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="12"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="11"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="12"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="11"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="12"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="11"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="12"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="11"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="12"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="11"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="12"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="11"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="12"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="11"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="12"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="11"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="12"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="11"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="12"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="11"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="12"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="11"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="12"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="11"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="12"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="11"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="12"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="11"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="12"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="11"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="12"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="11"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="12"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="11"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="12"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="11"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="12"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="11"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="12"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="11"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="12"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="11"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="12"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="11"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="12"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="11"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="12"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="11"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="12"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="11"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="12"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="11"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="12"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="11"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="12"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="11"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="12"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="11"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="12"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="11"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="12"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="11"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="12"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="11"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="12"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="11"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="12"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="11"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="12"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="11"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="12"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="11"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="12"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="11"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="12"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="11"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="12"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="11"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="12"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="11"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="12"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="11"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="12"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="11"/>
     </row>
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="18"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
+  <mergeCells count="19">
     <mergeCell ref="E1:O1"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
     <mergeCell ref="E2:O2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="E18:O18"/>
     <mergeCell ref="E27:O27"/>
     <mergeCell ref="E28:O28"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
     <mergeCell ref="E17:O17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
